--- a/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type2/pd_results_W15_H50_B16.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type2/pd_results_W15_H50_B16.xlsx
@@ -518,7 +518,7 @@
         <v>0.7104247104247104</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4850299401197605</v>
+        <v>0.4610778443113773</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.1227170839647549</v>
+        <v>0.1273503339968487</v>
       </c>
       <c r="J2" t="n">
-        <v>1609.167140328407</v>
+        <v>1644.504989347085</v>
       </c>
       <c r="K2" t="n">
-        <v>3627657.107432249</v>
+        <v>3473760.700229454</v>
       </c>
       <c r="L2" t="n">
-        <v>1904.640939240845</v>
+        <v>1863.802752500772</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3272976826552993</v>
+        <v>0.3558357905002335</v>
       </c>
     </row>
   </sheetData>
